--- a/ConsolidatedResultsXover.xlsx
+++ b/ConsolidatedResultsXover.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardobertini/RProjects/CoralMethodsPaper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83C0F67-D4A1-CC41-A6A8-0CC7E3D57853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05FD03A-DE7D-BE4E-B736-0FA48FB042F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="14700" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
